--- a/data/population+mortality.xlsx
+++ b/data/population+mortality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Downloads\_covid_19\data\ons\Population\mid-year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0EDA1D-57B2-4189-A88E-406D4A11A1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F819680-7EE5-465F-B7A7-DCD7DF609651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -877,6 +877,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -885,9 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9133,6 +9133,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -12118,7 +12119,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF7DB06-75A2-4385-A04C-68D2441F0777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7419975" y="485775"/>
+          <a:ext cx="1" cy="5067301"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34444</cdr:x>
+      <cdr:y>0.08184</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34444</cdr:x>
+      <cdr:y>0.94688</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF7DB06-75A2-4385-A04C-68D2441F0777}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="1574800" y="479425"/>
+          <a:ext cx="1" cy="5067301"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12449,7 +12562,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="132" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -12475,7 +12588,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -13136,8 +13249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F86A6F7-2CB3-4C21-AD4A-13C6991537CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13180,7 +13293,7 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="134" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -13206,7 +13319,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
@@ -13917,7 +14030,7 @@
       <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="134" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -13943,7 +14056,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
@@ -14671,7 +14784,7 @@
       <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="132" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -14697,7 +14810,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="65" t="s">
         <v>9</v>
       </c>
@@ -15387,10 +15500,10 @@
   <dimension ref="A1:IU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="CN33" sqref="CN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26485,7 +26598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F2F032-3C6D-43EB-A753-ED43B41A2301}">
   <dimension ref="A1:BD50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -30535,7 +30648,7 @@
         <f>SUM(F38:F47)</f>
         <v>4071.8326987485252</v>
       </c>
-      <c r="G49" s="134" t="s">
+      <c r="G49" s="131" t="s">
         <v>95</v>
       </c>
       <c r="H49" s="78" t="s">
@@ -30596,14 +30709,14 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="62"/>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="54">
         <v>2016</v>
       </c>

--- a/data/population+mortality.xlsx
+++ b/data/population+mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F819680-7EE5-465F-B7A7-DCD7DF609651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEE5350-9D0F-4546-AA08-5104007AA7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
+    <workbookView xWindow="-24120" yWindow="4740" windowWidth="24240" windowHeight="13740" activeTab="4" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -12534,7 +12534,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15499,11 +15499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94A7BF2-66EE-4B1D-8D93-C598B6390EEF}">
   <dimension ref="A1:IU35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CN33" sqref="CN33"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26598,11 +26598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F2F032-3C6D-43EB-A753-ED43B41A2301}">
   <dimension ref="A1:BD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/population+mortality.xlsx
+++ b/data/population+mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mike\projects\work\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEE5350-9D0F-4546-AA08-5104007AA7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045B908-F077-4274-AAFE-4F47A0C5AAE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="4740" windowWidth="24240" windowHeight="13740" activeTab="4" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{F1DC00DB-4C24-4153-8850-A4055601A7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -5281,7 +5281,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5305,6 +5305,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -11929,8 +11930,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15499,11 +15500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94A7BF2-66EE-4B1D-8D93-C598B6390EEF}">
   <dimension ref="A1:IU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30670,7 +30671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78ED7B4-35E7-4E7F-BF66-BDC26F937B40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
